--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H2">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N2">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q2">
-        <v>1047.008565482385</v>
+        <v>198.9460629358282</v>
       </c>
       <c r="R2">
-        <v>1047.008565482385</v>
+        <v>1790.514566422454</v>
       </c>
       <c r="S2">
-        <v>0.2347128903816668</v>
+        <v>0.02123374659230608</v>
       </c>
       <c r="T2">
-        <v>0.2347128903816668</v>
+        <v>0.02123374659230608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H3">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N3">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q3">
-        <v>864.632286324585</v>
+        <v>56.09455106318889</v>
       </c>
       <c r="R3">
-        <v>864.632286324585</v>
+        <v>504.8509595687</v>
       </c>
       <c r="S3">
-        <v>0.1938287323820051</v>
+        <v>0.005987037214549579</v>
       </c>
       <c r="T3">
-        <v>0.1938287323820051</v>
+        <v>0.00598703721454958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H4">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N4">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q4">
-        <v>94.09204292239689</v>
+        <v>6.547911185252556</v>
       </c>
       <c r="R4">
-        <v>94.09204292239689</v>
+        <v>58.931200667273</v>
       </c>
       <c r="S4">
-        <v>0.021093060825206</v>
+        <v>0.0006988662392450902</v>
       </c>
       <c r="T4">
-        <v>0.021093060825206</v>
+        <v>0.0006988662392450902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H5">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N5">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q5">
-        <v>166.3702024798372</v>
+        <v>11.81587350524311</v>
       </c>
       <c r="R5">
-        <v>166.3702024798372</v>
+        <v>106.342861547188</v>
       </c>
       <c r="S5">
-        <v>0.03729599965539415</v>
+        <v>0.001261122035161882</v>
       </c>
       <c r="T5">
-        <v>0.03729599965539415</v>
+        <v>0.001261122035161882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H6">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N6">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q6">
-        <v>1103.212403355486</v>
+        <v>3070.475197352727</v>
       </c>
       <c r="R6">
-        <v>1103.212403355486</v>
+        <v>27634.27677617454</v>
       </c>
       <c r="S6">
-        <v>0.24731237205989</v>
+        <v>0.3277154184226248</v>
       </c>
       <c r="T6">
-        <v>0.24731237205989</v>
+        <v>0.3277154184226249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H7">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N7">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q7">
-        <v>911.0460927083429</v>
+        <v>865.7468522094555</v>
       </c>
       <c r="R7">
-        <v>911.0460927083429</v>
+        <v>7791.7216698851</v>
       </c>
       <c r="S7">
-        <v>0.2042335361334699</v>
+        <v>0.09240217675899347</v>
       </c>
       <c r="T7">
-        <v>0.2042335361334699</v>
+        <v>0.09240217675899348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H8">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N8">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q8">
-        <v>99.14294135809666</v>
+        <v>101.0585411548032</v>
       </c>
       <c r="R8">
-        <v>99.14294135809666</v>
+        <v>909.5268703932289</v>
       </c>
       <c r="S8">
-        <v>0.02222534475291307</v>
+        <v>0.01078609660429113</v>
       </c>
       <c r="T8">
-        <v>0.02222534475291307</v>
+        <v>0.01078609660429113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.45485233333333</v>
+      </c>
+      <c r="H9">
+        <v>61.364557</v>
+      </c>
+      <c r="I9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="J9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.915377333333334</v>
+      </c>
+      <c r="N9">
+        <v>26.746132</v>
+      </c>
+      <c r="O9">
+        <v>0.04321756914621411</v>
+      </c>
+      <c r="P9">
+        <v>0.04321756914621412</v>
+      </c>
+      <c r="Q9">
+        <v>182.3627268492804</v>
+      </c>
+      <c r="R9">
+        <v>1641.264541643524</v>
+      </c>
+      <c r="S9">
+        <v>0.01946378768525104</v>
+      </c>
+      <c r="T9">
+        <v>0.01946378768525105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H10">
+        <v>70.913848</v>
+      </c>
+      <c r="I10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>150.1098686666667</v>
+      </c>
+      <c r="N10">
+        <v>450.329606</v>
+      </c>
+      <c r="O10">
+        <v>0.7276622610660995</v>
+      </c>
+      <c r="P10">
+        <v>0.7276622610660997</v>
+      </c>
+      <c r="Q10">
+        <v>3548.289469975988</v>
+      </c>
+      <c r="R10">
+        <v>31934.60522978389</v>
+      </c>
+      <c r="S10">
+        <v>0.3787130960511687</v>
+      </c>
+      <c r="T10">
+        <v>0.3787130960511688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="H9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="I9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="J9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.14026546315054</v>
-      </c>
-      <c r="N9">
-        <v>8.14026546315054</v>
-      </c>
-      <c r="O9">
-        <v>0.07659406346484918</v>
-      </c>
-      <c r="P9">
-        <v>0.07659406346484918</v>
-      </c>
-      <c r="Q9">
-        <v>175.3010213817663</v>
-      </c>
-      <c r="R9">
-        <v>175.3010213817663</v>
-      </c>
-      <c r="S9">
-        <v>0.03929806380945503</v>
-      </c>
-      <c r="T9">
-        <v>0.03929806380945503</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H11">
+        <v>70.913848</v>
+      </c>
+      <c r="I11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>42.32476666666667</v>
+      </c>
+      <c r="N11">
+        <v>126.9743</v>
+      </c>
+      <c r="O11">
+        <v>0.2051706239258123</v>
+      </c>
+      <c r="P11">
+        <v>0.2051706239258124</v>
+      </c>
+      <c r="Q11">
+        <v>1000.470690011822</v>
+      </c>
+      <c r="R11">
+        <v>9004.236210106401</v>
+      </c>
+      <c r="S11">
+        <v>0.1067814099522693</v>
+      </c>
+      <c r="T11">
+        <v>0.1067814099522693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H12">
+        <v>70.913848</v>
+      </c>
+      <c r="I12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.940565666666667</v>
+      </c>
+      <c r="N12">
+        <v>14.821697</v>
+      </c>
+      <c r="O12">
+        <v>0.02394954586187395</v>
+      </c>
+      <c r="P12">
+        <v>0.02394954586187395</v>
+      </c>
+      <c r="Q12">
+        <v>116.7848409066729</v>
+      </c>
+      <c r="R12">
+        <v>1051.063568160056</v>
+      </c>
+      <c r="S12">
+        <v>0.01246458301833773</v>
+      </c>
+      <c r="T12">
+        <v>0.01246458301833773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H13">
+        <v>70.913848</v>
+      </c>
+      <c r="I13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.915377333333334</v>
+      </c>
+      <c r="N13">
+        <v>26.746132</v>
+      </c>
+      <c r="O13">
+        <v>0.04321756914621411</v>
+      </c>
+      <c r="P13">
+        <v>0.04321756914621412</v>
+      </c>
+      <c r="Q13">
+        <v>210.7412376928818</v>
+      </c>
+      <c r="R13">
+        <v>1896.671139235936</v>
+      </c>
+      <c r="S13">
+        <v>0.02249265942580119</v>
+      </c>
+      <c r="T13">
+        <v>0.02249265942580119</v>
       </c>
     </row>
   </sheetData>
